--- a/data/pca/factorExposure/factorExposure_2009-10-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01186731949918921</v>
+        <v>0.01685799710528805</v>
       </c>
       <c r="C2">
-        <v>0.001773198699402463</v>
+        <v>-0.0009497172456326117</v>
       </c>
       <c r="D2">
-        <v>-0.005920821684972836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008819644891006151</v>
+      </c>
+      <c r="E2">
+        <v>0.001969945772009656</v>
+      </c>
+      <c r="F2">
+        <v>-0.01234874719507884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1109111065135221</v>
+        <v>0.0937637141171811</v>
       </c>
       <c r="C4">
-        <v>0.008760667636972357</v>
+        <v>-0.01458059601558753</v>
       </c>
       <c r="D4">
-        <v>-0.05538747356565386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08439038344715938</v>
+      </c>
+      <c r="E4">
+        <v>0.02935300290542771</v>
+      </c>
+      <c r="F4">
+        <v>0.03182649670825336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1399577673105548</v>
+        <v>0.1586124671609786</v>
       </c>
       <c r="C6">
-        <v>0.01452071510151844</v>
+        <v>-0.02612741688762913</v>
       </c>
       <c r="D6">
-        <v>0.02601563361574389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0225206941014675</v>
+      </c>
+      <c r="E6">
+        <v>0.01043255197037723</v>
+      </c>
+      <c r="F6">
+        <v>0.04464183411716539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07564768967942369</v>
+        <v>0.06340149810098371</v>
       </c>
       <c r="C7">
-        <v>-0.005683613821320371</v>
+        <v>0.001802586250277175</v>
       </c>
       <c r="D7">
-        <v>-0.03378985970410423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05296788041890615</v>
+      </c>
+      <c r="E7">
+        <v>0.01183269987337733</v>
+      </c>
+      <c r="F7">
+        <v>0.0474388014016159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06580648045386592</v>
+        <v>0.05717078634105409</v>
       </c>
       <c r="C8">
-        <v>-0.01641188561133266</v>
+        <v>0.0135208677992331</v>
       </c>
       <c r="D8">
-        <v>-0.005848861187907728</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03316126821748958</v>
+      </c>
+      <c r="E8">
+        <v>0.01795790096263421</v>
+      </c>
+      <c r="F8">
+        <v>-0.0273700464721796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08824698347015246</v>
+        <v>0.07098452566728237</v>
       </c>
       <c r="C9">
-        <v>0.007711094333234009</v>
+        <v>-0.01022891291608711</v>
       </c>
       <c r="D9">
-        <v>-0.05590674765718566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0868540143638987</v>
+      </c>
+      <c r="E9">
+        <v>0.02357712315312258</v>
+      </c>
+      <c r="F9">
+        <v>0.04820066251289027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.06602665316819059</v>
+        <v>0.09278459289838001</v>
       </c>
       <c r="C10">
-        <v>0.005592175180362064</v>
+        <v>-0.02117438692965368</v>
       </c>
       <c r="D10">
-        <v>0.1480850773008851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1665655423620602</v>
+      </c>
+      <c r="E10">
+        <v>-0.03377240985385488</v>
+      </c>
+      <c r="F10">
+        <v>-0.05463988010118134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09649956442553843</v>
+        <v>0.08787525158906494</v>
       </c>
       <c r="C11">
-        <v>0.007393744623652089</v>
+        <v>-0.01025495286722427</v>
       </c>
       <c r="D11">
-        <v>-0.08826509070504014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.11704189170127</v>
+      </c>
+      <c r="E11">
+        <v>0.04665822845651927</v>
+      </c>
+      <c r="F11">
+        <v>0.02259703081452165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1033270546319121</v>
+        <v>0.09182992225792155</v>
       </c>
       <c r="C12">
-        <v>0.005431243633387805</v>
+        <v>-0.007614810249280637</v>
       </c>
       <c r="D12">
-        <v>-0.08924576278449503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1319689844569671</v>
+      </c>
+      <c r="E12">
+        <v>0.04735206146515122</v>
+      </c>
+      <c r="F12">
+        <v>0.02820815431235216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04660067265367883</v>
+        <v>0.04198598357446225</v>
       </c>
       <c r="C13">
-        <v>0.001750353390519715</v>
+        <v>-0.002579914015158898</v>
       </c>
       <c r="D13">
-        <v>-0.03373394127772345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05368874603470791</v>
+      </c>
+      <c r="E13">
+        <v>-0.004752311616000417</v>
+      </c>
+      <c r="F13">
+        <v>0.001315298888253256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02608276520999554</v>
+        <v>0.02405550724694128</v>
       </c>
       <c r="C14">
-        <v>0.01218914618636243</v>
+        <v>-0.01381199486017995</v>
       </c>
       <c r="D14">
-        <v>-0.0218032351310432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03269350299519942</v>
+      </c>
+      <c r="E14">
+        <v>0.01901468046820958</v>
+      </c>
+      <c r="F14">
+        <v>0.01259337604656117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03990008806744955</v>
+        <v>0.03268290261504053</v>
       </c>
       <c r="C15">
-        <v>0.003476379281144471</v>
+        <v>-0.004609163671549597</v>
       </c>
       <c r="D15">
-        <v>-0.01815394785246187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04460989044378547</v>
+      </c>
+      <c r="E15">
+        <v>0.005595478408549791</v>
+      </c>
+      <c r="F15">
+        <v>0.0242912267924365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08303530108382828</v>
+        <v>0.07415780909861518</v>
       </c>
       <c r="C16">
-        <v>-0.0004528502197321188</v>
+        <v>-0.0008904115141618935</v>
       </c>
       <c r="D16">
-        <v>-0.08436602471490581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1275405934265098</v>
+      </c>
+      <c r="E16">
+        <v>0.06152422072046445</v>
+      </c>
+      <c r="F16">
+        <v>0.02656268750385916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006128171026499106</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001659782204128149</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.0008703096526642709</v>
+      </c>
+      <c r="E17">
+        <v>0.0003651643288260213</v>
+      </c>
+      <c r="F17">
+        <v>-0.0006616130465725428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.003510886562071079</v>
+        <v>0.03577609206500382</v>
       </c>
       <c r="C18">
-        <v>0.000292045712345464</v>
+        <v>0.003157329514035623</v>
       </c>
       <c r="D18">
-        <v>0.0002667448436436009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01561862189798088</v>
+      </c>
+      <c r="E18">
+        <v>-0.009405525161907612</v>
+      </c>
+      <c r="F18">
+        <v>-0.008755846230694421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06272974143730169</v>
+        <v>0.06134364061964235</v>
       </c>
       <c r="C20">
-        <v>0.001083883008560845</v>
+        <v>0.0001694356675810335</v>
       </c>
       <c r="D20">
-        <v>-0.03280396449447816</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07761591119262495</v>
+      </c>
+      <c r="E20">
+        <v>0.05621599938252022</v>
+      </c>
+      <c r="F20">
+        <v>0.02428225304075815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04395547169891995</v>
+        <v>0.04075179208140967</v>
       </c>
       <c r="C21">
-        <v>0.006563204308949494</v>
+        <v>-0.006450199173527529</v>
       </c>
       <c r="D21">
-        <v>-0.008074329187859167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0374577369990385</v>
+      </c>
+      <c r="E21">
+        <v>-0.002555302546132131</v>
+      </c>
+      <c r="F21">
+        <v>-0.02522080983974107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02072491702963165</v>
+        <v>0.04295042492415718</v>
       </c>
       <c r="C22">
-        <v>0.0006335676734932907</v>
+        <v>-0.0003826577497036512</v>
       </c>
       <c r="D22">
-        <v>0.0195186171867053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006641914618225206</v>
+      </c>
+      <c r="E22">
+        <v>0.03540274426427815</v>
+      </c>
+      <c r="F22">
+        <v>-0.03776535786262527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02067159255400838</v>
+        <v>0.04292630628137729</v>
       </c>
       <c r="C23">
-        <v>0.0006304208027852433</v>
+        <v>-0.0003742829946585505</v>
       </c>
       <c r="D23">
-        <v>0.01951106109903796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006657609060331421</v>
+      </c>
+      <c r="E23">
+        <v>0.03558625671012346</v>
+      </c>
+      <c r="F23">
+        <v>-0.03772976990290899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09162711530290084</v>
+        <v>0.07982993269948886</v>
       </c>
       <c r="C24">
-        <v>-0.001127201847078593</v>
+        <v>-0.001513324538122973</v>
       </c>
       <c r="D24">
-        <v>-0.09544591487493369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1217042915820159</v>
+      </c>
+      <c r="E24">
+        <v>0.04954323620147537</v>
+      </c>
+      <c r="F24">
+        <v>0.02741121132263516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09533983883432832</v>
+        <v>0.08506344818498056</v>
       </c>
       <c r="C25">
-        <v>0.002001547584496506</v>
+        <v>-0.004239389096399169</v>
       </c>
       <c r="D25">
-        <v>-0.08953843208432717</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094206064974786</v>
+      </c>
+      <c r="E25">
+        <v>0.03314534446744821</v>
+      </c>
+      <c r="F25">
+        <v>0.02696926695554321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.06085928687453591</v>
+        <v>0.05850485274319597</v>
       </c>
       <c r="C26">
-        <v>0.01275348973413096</v>
+        <v>-0.01419827064876123</v>
       </c>
       <c r="D26">
-        <v>-0.005164599641279619</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04071455445742671</v>
+      </c>
+      <c r="E26">
+        <v>0.02780288536674099</v>
+      </c>
+      <c r="F26">
+        <v>-0.005987182734765471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1206584813730886</v>
+        <v>0.142321300665554</v>
       </c>
       <c r="C28">
-        <v>-0.002408391788731396</v>
+        <v>-0.02207910707907131</v>
       </c>
       <c r="D28">
-        <v>0.2630924267627139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.261670590045089</v>
+      </c>
+      <c r="E28">
+        <v>-0.06707725759834886</v>
+      </c>
+      <c r="F28">
+        <v>0.009156737504390814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02629406290801325</v>
+        <v>0.02840470038043999</v>
       </c>
       <c r="C29">
-        <v>0.007142558917737995</v>
+        <v>-0.008646579273185398</v>
       </c>
       <c r="D29">
-        <v>-0.01759433408306732</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03090001260278326</v>
+      </c>
+      <c r="E29">
+        <v>0.01362620502697659</v>
+      </c>
+      <c r="F29">
+        <v>-0.01357268827239482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09675092557684557</v>
+        <v>0.05939279242678068</v>
       </c>
       <c r="C30">
-        <v>-0.002559738856184217</v>
+        <v>-0.002542585584530046</v>
       </c>
       <c r="D30">
-        <v>-0.06396496600603137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09012658292829752</v>
+      </c>
+      <c r="E30">
+        <v>0.01674942047073189</v>
+      </c>
+      <c r="F30">
+        <v>0.07860554687041384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04123532386635919</v>
+        <v>0.05074787517493227</v>
       </c>
       <c r="C31">
-        <v>0.01338213623109521</v>
+        <v>-0.01533135019524548</v>
       </c>
       <c r="D31">
-        <v>-0.0142911923534285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02481222955249489</v>
+      </c>
+      <c r="E31">
+        <v>0.02824245834339001</v>
+      </c>
+      <c r="F31">
+        <v>-0.001112673786786737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05394752558654562</v>
+        <v>0.05133737096771267</v>
       </c>
       <c r="C32">
-        <v>-0.00346428532999943</v>
+        <v>0.001835893551888886</v>
       </c>
       <c r="D32">
-        <v>-0.01195202350190678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0353374410265379</v>
+      </c>
+      <c r="E32">
+        <v>0.03347642243652563</v>
+      </c>
+      <c r="F32">
+        <v>0.002953463696829473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0978702963486956</v>
+        <v>0.08919421953375231</v>
       </c>
       <c r="C33">
-        <v>0.003495150883598698</v>
+        <v>-0.006690897222911761</v>
       </c>
       <c r="D33">
-        <v>-0.06472176843495354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1008428021086078</v>
+      </c>
+      <c r="E33">
+        <v>0.04444944065973701</v>
+      </c>
+      <c r="F33">
+        <v>0.03665842660378479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08396608377840671</v>
+        <v>0.06756358040892708</v>
       </c>
       <c r="C34">
-        <v>0.006692191033495757</v>
+        <v>-0.009944247008303837</v>
       </c>
       <c r="D34">
-        <v>-0.08355528929438612</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1092954416242367</v>
+      </c>
+      <c r="E34">
+        <v>0.03522431057275651</v>
+      </c>
+      <c r="F34">
+        <v>0.03324117429704337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02460352967287299</v>
+        <v>0.02473129960890642</v>
       </c>
       <c r="C35">
-        <v>-0.0001347966559880287</v>
+        <v>-0.002456667982996342</v>
       </c>
       <c r="D35">
-        <v>-0.003164893726070094</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01108988475732026</v>
+      </c>
+      <c r="E35">
+        <v>0.01198455438206156</v>
+      </c>
+      <c r="F35">
+        <v>0.000340966058326621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01714273392074494</v>
+        <v>0.02753020898406903</v>
       </c>
       <c r="C36">
-        <v>0.008556017009153835</v>
+        <v>-0.006784640059065873</v>
       </c>
       <c r="D36">
-        <v>-0.02726599779579686</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03967028884845148</v>
+      </c>
+      <c r="E36">
+        <v>0.01644032506423153</v>
+      </c>
+      <c r="F36">
+        <v>0.01515662594509238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.001028398574395243</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006136396171088905</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002212634974465972</v>
+      </c>
+      <c r="E37">
+        <v>-0.0007086050126227578</v>
+      </c>
+      <c r="F37">
+        <v>0.000887268537752282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0001411000013918649</v>
+        <v>9.238297244313685e-05</v>
       </c>
       <c r="C38">
-        <v>3.070088927113059e-05</v>
+        <v>5.19152008504963e-05</v>
       </c>
       <c r="D38">
-        <v>-0.001387068528261794</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0006343218839111596</v>
+      </c>
+      <c r="E38">
+        <v>-0.0003485173654555248</v>
+      </c>
+      <c r="F38">
+        <v>0.0002280561253612679</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1320124360088311</v>
+        <v>0.1042303477418145</v>
       </c>
       <c r="C39">
-        <v>0.01002715239611173</v>
+        <v>-0.0154171047986991</v>
       </c>
       <c r="D39">
-        <v>-0.1291680574955938</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1551341999302696</v>
+      </c>
+      <c r="E39">
+        <v>0.06023948866908926</v>
+      </c>
+      <c r="F39">
+        <v>0.02969587420297671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02798600639892058</v>
+        <v>0.04123481243787923</v>
       </c>
       <c r="C40">
-        <v>0.007185137077457645</v>
+        <v>-0.006908780964089127</v>
       </c>
       <c r="D40">
-        <v>0.01423995463996198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03082785159956768</v>
+      </c>
+      <c r="E40">
+        <v>0.002560914206502737</v>
+      </c>
+      <c r="F40">
+        <v>-0.01638184864173292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02228416912653652</v>
+        <v>0.02833024281611041</v>
       </c>
       <c r="C41">
-        <v>0.005677026957118903</v>
+        <v>-0.006947661679716791</v>
       </c>
       <c r="D41">
-        <v>0.001877097194676568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01027770275214074</v>
+      </c>
+      <c r="E41">
+        <v>0.01180949683707134</v>
+      </c>
+      <c r="F41">
+        <v>-0.005920890763054696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02556359720088103</v>
+        <v>0.04093627523939995</v>
       </c>
       <c r="C43">
-        <v>0.007367930834607457</v>
+        <v>-0.007093679278442549</v>
       </c>
       <c r="D43">
-        <v>-0.007437685302977823</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01899864359258794</v>
+      </c>
+      <c r="E43">
+        <v>0.02529316005833042</v>
+      </c>
+      <c r="F43">
+        <v>-0.01261422326905537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1012183102789359</v>
+        <v>0.07915574517859239</v>
       </c>
       <c r="C44">
-        <v>0.01547190047847114</v>
+        <v>-0.01904689229025685</v>
       </c>
       <c r="D44">
-        <v>-0.06645124578359328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09807299876298478</v>
+      </c>
+      <c r="E44">
+        <v>0.06240235442185145</v>
+      </c>
+      <c r="F44">
+        <v>0.1548265878001077</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01152084353161608</v>
+        <v>0.02352577507589369</v>
       </c>
       <c r="C46">
-        <v>0.003857219640955844</v>
+        <v>-0.00339508274434933</v>
       </c>
       <c r="D46">
-        <v>0.002193612921032721</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01283901381278353</v>
+      </c>
+      <c r="E46">
+        <v>0.02586260861930702</v>
+      </c>
+      <c r="F46">
+        <v>-0.006486902265603176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0364685523020748</v>
+        <v>0.05229077853045402</v>
       </c>
       <c r="C47">
-        <v>0.002331402731493622</v>
+        <v>-0.003279613396051038</v>
       </c>
       <c r="D47">
-        <v>0.01338758571028179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01405875465648431</v>
+      </c>
+      <c r="E47">
+        <v>0.02270533043479244</v>
+      </c>
+      <c r="F47">
+        <v>-0.0317021932481923</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05070913498261207</v>
+        <v>0.05021985341168988</v>
       </c>
       <c r="C48">
-        <v>0.0007560765804658471</v>
+        <v>-0.002107701739983355</v>
       </c>
       <c r="D48">
-        <v>-0.02967360090378555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04997773734279166</v>
+      </c>
+      <c r="E48">
+        <v>-0.005142842161921337</v>
+      </c>
+      <c r="F48">
+        <v>0.009799356527829808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2089174431576776</v>
+        <v>0.2005533352151526</v>
       </c>
       <c r="C49">
-        <v>-0.0007157620752617799</v>
+        <v>-0.01882246871077526</v>
       </c>
       <c r="D49">
-        <v>0.003610301562236742</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005425513386948405</v>
+      </c>
+      <c r="E49">
+        <v>0.03183194899424511</v>
+      </c>
+      <c r="F49">
+        <v>0.03698574091520323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04226521432438942</v>
+        <v>0.0510315719178181</v>
       </c>
       <c r="C50">
-        <v>0.009388590524900388</v>
+        <v>-0.01097947241973121</v>
       </c>
       <c r="D50">
-        <v>-0.01134053392019619</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02428546240045774</v>
+      </c>
+      <c r="E50">
+        <v>0.02984658689242231</v>
+      </c>
+      <c r="F50">
+        <v>0.009876006237519781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-5.9903415520161e-07</v>
+        <v>-7.30024648854092e-05</v>
       </c>
       <c r="C51">
-        <v>-3.649310966905134e-05</v>
+        <v>2.292680683611204e-05</v>
       </c>
       <c r="D51">
-        <v>2.186788232752877e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-6.472773120638273e-05</v>
+      </c>
+      <c r="E51">
+        <v>8.718492187547723e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.0002712538053925179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1569402445160104</v>
+        <v>0.1473483958059495</v>
       </c>
       <c r="C52">
-        <v>0.001344902678948603</v>
+        <v>-0.01684850965315302</v>
       </c>
       <c r="D52">
-        <v>-0.04717458443477448</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04283066908531662</v>
+      </c>
+      <c r="E52">
+        <v>0.019263354206804</v>
+      </c>
+      <c r="F52">
+        <v>0.04376719136004112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1723532384693347</v>
+        <v>0.1715296555481991</v>
       </c>
       <c r="C53">
-        <v>0.0008493374176014086</v>
+        <v>-0.01960107602734679</v>
       </c>
       <c r="D53">
-        <v>-0.01146669552909294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005662007307013495</v>
+      </c>
+      <c r="E53">
+        <v>0.02822525062925523</v>
+      </c>
+      <c r="F53">
+        <v>0.07425103260857181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02221306992318327</v>
+        <v>0.0211612173250785</v>
       </c>
       <c r="C54">
-        <v>0.009697035980206867</v>
+        <v>-0.01140614778848825</v>
       </c>
       <c r="D54">
-        <v>-0.02084587720695074</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03442863672042127</v>
+      </c>
+      <c r="E54">
+        <v>0.02174044350275993</v>
+      </c>
+      <c r="F54">
+        <v>-0.005351246269151151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1068064048831596</v>
+        <v>0.1139686957265754</v>
       </c>
       <c r="C55">
-        <v>0.005243840397299276</v>
+        <v>-0.01709559808346365</v>
       </c>
       <c r="D55">
-        <v>-0.003641879920401426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008418665629412644</v>
+      </c>
+      <c r="E55">
+        <v>0.02423430326229873</v>
+      </c>
+      <c r="F55">
+        <v>0.04765238517115318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1755209498802636</v>
+        <v>0.1768672515942409</v>
       </c>
       <c r="C56">
-        <v>-0.001507536423794431</v>
+        <v>-0.01736792077269851</v>
       </c>
       <c r="D56">
-        <v>0.01037397277348902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001195904459922315</v>
+      </c>
+      <c r="E56">
+        <v>0.03317140715475242</v>
+      </c>
+      <c r="F56">
+        <v>0.05251922195011298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03598090916272974</v>
+        <v>0.04463754485620616</v>
       </c>
       <c r="C58">
-        <v>0.003803054611985956</v>
+        <v>0.0007667845443140381</v>
       </c>
       <c r="D58">
-        <v>-0.04778815496425912</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07146062091734579</v>
+      </c>
+      <c r="E58">
+        <v>0.03040392943894447</v>
+      </c>
+      <c r="F58">
+        <v>-0.03800637191478596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.148659694479042</v>
+        <v>0.1676535841712163</v>
       </c>
       <c r="C59">
-        <v>-0.00394746884584627</v>
+        <v>-0.0220239149567686</v>
       </c>
       <c r="D59">
-        <v>0.2315547031575872</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2166713847642689</v>
+      </c>
+      <c r="E59">
+        <v>-0.04571445337897846</v>
+      </c>
+      <c r="F59">
+        <v>-0.03502106163506714</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2526142084413009</v>
+        <v>0.2319765137545783</v>
       </c>
       <c r="C60">
-        <v>-0.02573754272777004</v>
+        <v>0.002395785474361158</v>
       </c>
       <c r="D60">
-        <v>-0.05120001126489252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0420063760247287</v>
+      </c>
+      <c r="E60">
+        <v>0.009638212945079093</v>
+      </c>
+      <c r="F60">
+        <v>-0.005661562604320702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1081221071862216</v>
+        <v>0.08026262264805031</v>
       </c>
       <c r="C61">
-        <v>0.005496856874284114</v>
+        <v>-0.01119256417542212</v>
       </c>
       <c r="D61">
-        <v>-0.0868726704990741</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1178645989640565</v>
+      </c>
+      <c r="E61">
+        <v>0.04015768287064538</v>
+      </c>
+      <c r="F61">
+        <v>0.01253942261467191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1750056632390022</v>
+        <v>0.1698472930492453</v>
       </c>
       <c r="C62">
-        <v>0.001838719686628309</v>
+        <v>-0.0205614080201162</v>
       </c>
       <c r="D62">
-        <v>0.008484095920608923</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005962226085027895</v>
+      </c>
+      <c r="E62">
+        <v>0.03372347462043473</v>
+      </c>
+      <c r="F62">
+        <v>0.0360534094135431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0506734655598535</v>
+        <v>0.04569274892195613</v>
       </c>
       <c r="C63">
-        <v>0.001162022887883459</v>
+        <v>-0.00168214890123028</v>
       </c>
       <c r="D63">
-        <v>-0.03315320299188664</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05832131027547344</v>
+      </c>
+      <c r="E63">
+        <v>0.02273092022823088</v>
+      </c>
+      <c r="F63">
+        <v>0.003108145016794436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1007087658356953</v>
+        <v>0.109709581188165</v>
       </c>
       <c r="C64">
-        <v>0.006300151499580425</v>
+        <v>-0.01102655092082512</v>
       </c>
       <c r="D64">
-        <v>-0.01287877297469971</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04424529982671148</v>
+      </c>
+      <c r="E64">
+        <v>0.02325539961916906</v>
+      </c>
+      <c r="F64">
+        <v>0.02506010596407156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1299337691938983</v>
+        <v>0.1497160664566778</v>
       </c>
       <c r="C65">
-        <v>0.02064173160236043</v>
+        <v>-0.03360916432500444</v>
       </c>
       <c r="D65">
-        <v>0.02308448697576571</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04294636489842357</v>
+      </c>
+      <c r="E65">
+        <v>0.005694574630280975</v>
+      </c>
+      <c r="F65">
+        <v>0.04096179207008917</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1586492641458017</v>
+        <v>0.123661489504042</v>
       </c>
       <c r="C66">
-        <v>0.005409633767227984</v>
+        <v>-0.01332412285927331</v>
       </c>
       <c r="D66">
-        <v>-0.1234979437533815</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1429522890499323</v>
+      </c>
+      <c r="E66">
+        <v>0.06608094327341538</v>
+      </c>
+      <c r="F66">
+        <v>0.03319398011613576</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06198026459606675</v>
+        <v>0.05800357344589561</v>
       </c>
       <c r="C67">
-        <v>-0.0008063152797587243</v>
+        <v>-0.002850973206964474</v>
       </c>
       <c r="D67">
-        <v>-0.03615708961219272</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05656191283074974</v>
+      </c>
+      <c r="E67">
+        <v>0.01653032416739056</v>
+      </c>
+      <c r="F67">
+        <v>-0.0314720603541976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.09813619434988052</v>
+        <v>0.1163794669746035</v>
       </c>
       <c r="C68">
-        <v>0.009473375416669429</v>
+        <v>-0.03260559393487081</v>
       </c>
       <c r="D68">
-        <v>0.2431064671302367</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.260561769074959</v>
+      </c>
+      <c r="E68">
+        <v>-0.08655195083427834</v>
+      </c>
+      <c r="F68">
+        <v>0.005380650349844269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03450227342728836</v>
+        <v>0.03952236788695532</v>
       </c>
       <c r="C69">
-        <v>-0.001431430056897187</v>
+        <v>-0.001177860880618063</v>
       </c>
       <c r="D69">
-        <v>-0.0004113907858864089</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008194931575776691</v>
+      </c>
+      <c r="E69">
+        <v>0.0232886940561776</v>
+      </c>
+      <c r="F69">
+        <v>0.0009692860608461157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04700159855259316</v>
+        <v>0.0668262017046381</v>
       </c>
       <c r="C70">
-        <v>-0.02601225718038842</v>
+        <v>0.02753157816742631</v>
       </c>
       <c r="D70">
-        <v>0.04488980808747665</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02409053176401069</v>
+      </c>
+      <c r="E70">
+        <v>-0.03488821751843048</v>
+      </c>
+      <c r="F70">
+        <v>-0.1828872205082345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1134991732419674</v>
+        <v>0.1361660272664561</v>
       </c>
       <c r="C71">
-        <v>0.01236682127895353</v>
+        <v>-0.03690659596157943</v>
       </c>
       <c r="D71">
-        <v>0.2630403458558754</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.272401774862727</v>
+      </c>
+      <c r="E71">
+        <v>-0.09697564992554826</v>
+      </c>
+      <c r="F71">
+        <v>0.01047770908322764</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1348494561896101</v>
+        <v>0.1424582464341876</v>
       </c>
       <c r="C72">
-        <v>0.01345959062262293</v>
+        <v>-0.02682613065510953</v>
       </c>
       <c r="D72">
-        <v>0.01521825362584702</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002615445078130509</v>
+      </c>
+      <c r="E72">
+        <v>0.03672301398333767</v>
+      </c>
+      <c r="F72">
+        <v>0.03136326582751944</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2004194655846913</v>
+        <v>0.2032970950979539</v>
       </c>
       <c r="C73">
-        <v>-0.006068619407141541</v>
+        <v>-0.01258249733914334</v>
       </c>
       <c r="D73">
-        <v>0.003028446294240776</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0180779778880686</v>
+      </c>
+      <c r="E73">
+        <v>0.06315671590632434</v>
+      </c>
+      <c r="F73">
+        <v>0.03700276855452379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09852394581041084</v>
+        <v>0.09497256163527887</v>
       </c>
       <c r="C74">
-        <v>0.001786511008266495</v>
+        <v>-0.01340565486007061</v>
       </c>
       <c r="D74">
-        <v>-0.01915769055681939</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01735488065404056</v>
+      </c>
+      <c r="E74">
+        <v>0.04429959642493416</v>
+      </c>
+      <c r="F74">
+        <v>0.05744622908082144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1312334603534014</v>
+        <v>0.127454001658428</v>
       </c>
       <c r="C75">
-        <v>0.01549236040931293</v>
+        <v>-0.02808258988992359</v>
       </c>
       <c r="D75">
-        <v>-0.01617215233402145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03044504994239032</v>
+      </c>
+      <c r="E75">
+        <v>0.05755503949322423</v>
+      </c>
+      <c r="F75">
+        <v>0.02230525821310784</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0818674495078244</v>
+        <v>0.08735598749140863</v>
       </c>
       <c r="C77">
-        <v>0.008050289614266872</v>
+        <v>-0.008176051824839473</v>
       </c>
       <c r="D77">
-        <v>-0.09099830809167229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1115120744001453</v>
+      </c>
+      <c r="E77">
+        <v>0.03835493441134641</v>
+      </c>
+      <c r="F77">
+        <v>0.03461444471910393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1167261909440039</v>
+        <v>0.1001038080437414</v>
       </c>
       <c r="C78">
-        <v>0.03522006352045404</v>
+        <v>-0.03927922909260881</v>
       </c>
       <c r="D78">
-        <v>-0.06994807081011768</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1148549882378394</v>
+      </c>
+      <c r="E78">
+        <v>0.0741992008173894</v>
+      </c>
+      <c r="F78">
+        <v>0.04733827698896387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1612223135879443</v>
+        <v>0.1641358341641591</v>
       </c>
       <c r="C79">
-        <v>0.007271959962341895</v>
+        <v>-0.0229049087876809</v>
       </c>
       <c r="D79">
-        <v>0.00851635391388577</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01402146261936184</v>
+      </c>
+      <c r="E79">
+        <v>0.04557017875683147</v>
+      </c>
+      <c r="F79">
+        <v>0.01236883928728649</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.09114674789067564</v>
+        <v>0.08244483622844814</v>
       </c>
       <c r="C80">
-        <v>-0.007682817238868847</v>
+        <v>0.0009388223903236234</v>
       </c>
       <c r="D80">
-        <v>-0.0452378730163048</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05637290512929036</v>
+      </c>
+      <c r="E80">
+        <v>0.0357544652713243</v>
+      </c>
+      <c r="F80">
+        <v>-0.02256539997306764</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1190140554248473</v>
+        <v>0.1198085905728858</v>
       </c>
       <c r="C81">
-        <v>0.02007294684277697</v>
+        <v>-0.03194151979086945</v>
       </c>
       <c r="D81">
-        <v>-0.03106316940390538</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01458338520376745</v>
+      </c>
+      <c r="E81">
+        <v>0.05611086754668543</v>
+      </c>
+      <c r="F81">
+        <v>0.0179760620002677</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.168098918724359</v>
+        <v>0.1660759103142792</v>
       </c>
       <c r="C82">
-        <v>0.006689859914668492</v>
+        <v>-0.02503355468918043</v>
       </c>
       <c r="D82">
-        <v>-0.0165206915294542</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003602383486938636</v>
+      </c>
+      <c r="E82">
+        <v>0.02636336750561535</v>
+      </c>
+      <c r="F82">
+        <v>0.08198423555996995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06698984198182113</v>
+        <v>0.05891375774385857</v>
       </c>
       <c r="C83">
-        <v>0.0008158440455451543</v>
+        <v>-0.00269465307295126</v>
       </c>
       <c r="D83">
-        <v>-0.03376145401648566</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05163913557433873</v>
+      </c>
+      <c r="E83">
+        <v>0.003079111598461819</v>
+      </c>
+      <c r="F83">
+        <v>-0.03049507802874258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07423861754668</v>
+        <v>0.0591332786016138</v>
       </c>
       <c r="C84">
-        <v>0.007610034667330474</v>
+        <v>-0.01102338187111955</v>
       </c>
       <c r="D84">
-        <v>-0.04576129710992239</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06411098081435376</v>
+      </c>
+      <c r="E84">
+        <v>0.00728922401111719</v>
+      </c>
+      <c r="F84">
+        <v>0.005824782970611007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.133770119131543</v>
+        <v>0.1355424437080824</v>
       </c>
       <c r="C85">
-        <v>0.01492170538431222</v>
+        <v>-0.02802976785075722</v>
       </c>
       <c r="D85">
-        <v>-0.004371029046359354</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009610663261483977</v>
+      </c>
+      <c r="E85">
+        <v>0.03556724188780373</v>
+      </c>
+      <c r="F85">
+        <v>0.04849804099110125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.06987813422009603</v>
+        <v>0.09466530005129004</v>
       </c>
       <c r="C86">
-        <v>-0.004230141813871042</v>
+        <v>0.005352545061400234</v>
       </c>
       <c r="D86">
-        <v>0.06433388411931353</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04010420511842806</v>
+      </c>
+      <c r="E86">
+        <v>0.2223678484339953</v>
+      </c>
+      <c r="F86">
+        <v>-0.9057593008390682</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1243739372421388</v>
+        <v>0.09444282586353385</v>
       </c>
       <c r="C87">
-        <v>0.0147867668455746</v>
+        <v>-0.01936992248372607</v>
       </c>
       <c r="D87">
-        <v>-0.06324126265384165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09385103038989147</v>
+      </c>
+      <c r="E87">
+        <v>-0.05312885309973165</v>
+      </c>
+      <c r="F87">
+        <v>0.04711641001748804</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05725096004250975</v>
+        <v>0.06063651483711129</v>
       </c>
       <c r="C88">
-        <v>0.001254661845294588</v>
+        <v>-0.002097429565325899</v>
       </c>
       <c r="D88">
-        <v>-0.02395007224303841</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04949072439005506</v>
+      </c>
+      <c r="E88">
+        <v>0.02424378607755874</v>
+      </c>
+      <c r="F88">
+        <v>0.01360743291691154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1176456163844141</v>
+        <v>0.1307397141919125</v>
       </c>
       <c r="C89">
-        <v>-0.01076519879469862</v>
+        <v>-0.01356130700690763</v>
       </c>
       <c r="D89">
-        <v>0.2749749855284032</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2470974775763245</v>
+      </c>
+      <c r="E89">
+        <v>-0.08942641253933928</v>
+      </c>
+      <c r="F89">
+        <v>-0.007663181646522231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1204430791111234</v>
+        <v>0.1509266496074008</v>
       </c>
       <c r="C90">
-        <v>0.009977223226407286</v>
+        <v>-0.03353517076815147</v>
       </c>
       <c r="D90">
-        <v>0.2678378984803468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2705730511425701</v>
+      </c>
+      <c r="E90">
+        <v>-0.1122933643597448</v>
+      </c>
+      <c r="F90">
+        <v>-0.006973156606692163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.112767093503648</v>
+        <v>0.1208660917194541</v>
       </c>
       <c r="C91">
-        <v>0.005634647345360439</v>
+        <v>-0.01962128512004265</v>
       </c>
       <c r="D91">
-        <v>0.02040321362020361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01486978082451941</v>
+      </c>
+      <c r="E91">
+        <v>0.0551648898800015</v>
+      </c>
+      <c r="F91">
+        <v>-0.001270688826099903</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1391393144225333</v>
+        <v>0.1484242579903537</v>
       </c>
       <c r="C92">
-        <v>-0.005133206260731524</v>
+        <v>-0.02457240745371897</v>
       </c>
       <c r="D92">
-        <v>0.3019618123526319</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.291538116443962</v>
+      </c>
+      <c r="E92">
+        <v>-0.1011424430205525</v>
+      </c>
+      <c r="F92">
+        <v>-0.01219417772785939</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1222838963093603</v>
+        <v>0.1519308022138054</v>
       </c>
       <c r="C93">
-        <v>0.004579700314351298</v>
+        <v>-0.02884830220877962</v>
       </c>
       <c r="D93">
-        <v>0.2640878890474823</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2674457633586045</v>
+      </c>
+      <c r="E93">
+        <v>-0.07876019197379142</v>
+      </c>
+      <c r="F93">
+        <v>0.003481319217704518</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1345274928207492</v>
+        <v>0.1282939316252182</v>
       </c>
       <c r="C94">
-        <v>0.01156742539910225</v>
+        <v>-0.02446743101248262</v>
       </c>
       <c r="D94">
-        <v>-0.0342320332648063</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04202645969510296</v>
+      </c>
+      <c r="E94">
+        <v>0.05661879744557707</v>
+      </c>
+      <c r="F94">
+        <v>0.03630294408493227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1211340859548657</v>
+        <v>0.1269107718394857</v>
       </c>
       <c r="C95">
-        <v>-0.0001657272378690764</v>
+        <v>-0.003157538211655302</v>
       </c>
       <c r="D95">
-        <v>-0.06285490615796006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09469886992692825</v>
+      </c>
+      <c r="E95">
+        <v>0.04791815352809336</v>
+      </c>
+      <c r="F95">
+        <v>-0.004564483198804724</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01341831048701482</v>
+        <v>0.1081786862673357</v>
       </c>
       <c r="C96">
-        <v>-0.9945823938645799</v>
+        <v>0.9872116019006882</v>
       </c>
       <c r="D96">
-        <v>0.01432360629304805</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05101241956502647</v>
+      </c>
+      <c r="E96">
+        <v>0.05375735186089456</v>
+      </c>
+      <c r="F96">
+        <v>0.04217853037110499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.19156008932006</v>
+        <v>0.1923266272335365</v>
       </c>
       <c r="C97">
-        <v>-0.0267764775971019</v>
+        <v>0.007056292957848031</v>
       </c>
       <c r="D97">
-        <v>0.05017102630077783</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01810082431904754</v>
+      </c>
+      <c r="E97">
+        <v>0.02308715522348452</v>
+      </c>
+      <c r="F97">
+        <v>-0.09619358518507545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2065317414605667</v>
+        <v>0.2064373744274558</v>
       </c>
       <c r="C98">
-        <v>-0.01099725459290837</v>
+        <v>-0.007177522605743568</v>
       </c>
       <c r="D98">
-        <v>0.01226963356328512</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0129214119287664</v>
+      </c>
+      <c r="E98">
+        <v>-0.07831318993957352</v>
+      </c>
+      <c r="F98">
+        <v>-0.09466544102774134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05630863027355255</v>
+        <v>0.05421302904266304</v>
       </c>
       <c r="C99">
-        <v>-0.00781374967338532</v>
+        <v>0.004750530967391244</v>
       </c>
       <c r="D99">
-        <v>-0.01916863125851973</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04026203104398864</v>
+      </c>
+      <c r="E99">
+        <v>0.02254889028137974</v>
+      </c>
+      <c r="F99">
+        <v>0.00204956927414898</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.155655799894632</v>
+        <v>0.1265769727586846</v>
       </c>
       <c r="C100">
-        <v>-0.04684926824557387</v>
+        <v>0.05409180047092759</v>
       </c>
       <c r="D100">
-        <v>-0.503231695775385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3455394374942067</v>
+      </c>
+      <c r="E100">
+        <v>-0.8876067248643762</v>
+      </c>
+      <c r="F100">
+        <v>-0.15218272542805</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02601570403974065</v>
+        <v>0.02836713967269831</v>
       </c>
       <c r="C101">
-        <v>0.007136066721901477</v>
+        <v>-0.008673287457444692</v>
       </c>
       <c r="D101">
-        <v>-0.01680982268419048</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0305024679690132</v>
+      </c>
+      <c r="E101">
+        <v>0.01300945756756522</v>
+      </c>
+      <c r="F101">
+        <v>-0.01476667205597176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
